--- a/CNN_하이퍼 파라미터_변경 및 결과.xlsx
+++ b/CNN_하이퍼 파라미터_변경 및 결과.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MSDL_JAH\2022_대한전기학회_논문지\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MSDL_JAH\2022_대한전기학회_논문지\2D_CNN_hyperparameter_optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C9872F-B794-45DF-A991-86D916D66C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7726A5B-7D3E-4C2F-A691-5A165691235D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39105" yWindow="1170" windowWidth="13935" windowHeight="10335" xr2:uid="{BF01D402-AABD-4183-BB28-E0B886CDD172}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF01D402-AABD-4183-BB28-E0B886CDD172}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AF$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t>layers</t>
   </si>
@@ -260,14 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CASE4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CASE5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,19 +284,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>epoch 50일 때, train mae -&gt; 1.476</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epoch 100일 때, train mae -&gt; 0.972, 0.813</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>200*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>epoch 150일 때, train mae -&gt; 0.97 (최소 0.655까지 내려감), 크게 더 좋아지지 않음.</t>
+    <t>epoch 50일 때, train mae: 1.476, 1.422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch 100일 때, train mae: 0.972, 0.813, 0.815, 0.946</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch 200일 때, train mae: 3.716(튐) (최소 0.6849까지 내려감)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch 150일 때, train mae: 0.97, 0.815 (최소 0.655까지 내려감)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -847,15 +843,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -899,19 +886,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -972,18 +953,279 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -993,12 +1235,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1021,291 +1257,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1640,10 +1591,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF31"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1657,1194 +1608,1120 @@
     <col min="15" max="15" width="3.125" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
     <col min="19" max="19" width="3.125" customWidth="1"/>
-    <col min="29" max="29" width="70.875" customWidth="1"/>
+    <col min="29" max="29" width="78.25" customWidth="1"/>
     <col min="31" max="31" width="72.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:32" ht="34.5" customHeight="1" thickBot="1">
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="109" t="s">
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="114"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="85"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="31" t="s">
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="33" t="s">
+      <c r="J3" s="112"/>
+      <c r="L3" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
-      <c r="P3" s="36" t="s">
+      <c r="M3" s="117"/>
+      <c r="N3" s="118"/>
+      <c r="P3" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="38"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="121"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="39" t="s">
+      <c r="T3" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="40"/>
-      <c r="W3" s="41" t="s">
+      <c r="U3" s="123"/>
+      <c r="W3" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42" t="s">
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42" t="s">
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="43" t="s">
+      <c r="AB3" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="117" t="s">
+      <c r="AC3" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="AE3" s="108" t="s">
+      <c r="AE3" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="AF3" s="101"/>
+      <c r="AF3" s="79"/>
     </row>
     <row r="4" spans="1:32" ht="17.25" thickBot="1">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="10"/>
-      <c r="T4" s="18" t="s">
+      <c r="S4" s="8"/>
+      <c r="T4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="22" t="s">
+      <c r="W4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="23" t="s">
+      <c r="X4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="23" t="s">
+      <c r="Y4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="23" t="s">
+      <c r="Z4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="115"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="101"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="104"/>
+      <c r="AE4" s="102"/>
+      <c r="AF4" s="79"/>
     </row>
     <row r="5" spans="1:32" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="23">
         <v>3</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>128</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="57">
+      <c r="H5" s="1"/>
+      <c r="I5" s="36">
         <v>3</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="94">
+      <c r="K5" s="1"/>
+      <c r="L5" s="72">
         <v>4</v>
       </c>
-      <c r="M5" s="66">
+      <c r="M5" s="45">
         <v>2048</v>
       </c>
-      <c r="N5" s="70" t="s">
+      <c r="N5" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="89">
+      <c r="P5" s="67">
         <v>50</v>
       </c>
-      <c r="Q5" s="91" t="b">
+      <c r="Q5" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="R5" s="82">
+      <c r="R5" s="61">
         <v>64</v>
       </c>
-      <c r="S5" s="79"/>
-      <c r="T5" s="80">
+      <c r="S5" s="58"/>
+      <c r="T5" s="59">
         <v>1E-4</v>
       </c>
-      <c r="U5" s="97" t="s">
+      <c r="U5" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="129">
+      <c r="W5" s="91">
         <v>2.4180000000000001</v>
       </c>
-      <c r="X5" s="130">
+      <c r="X5" s="92">
         <v>2.4609999999999999</v>
       </c>
-      <c r="Y5" s="130">
+      <c r="Y5" s="92">
         <v>0.377</v>
       </c>
-      <c r="Z5" s="130">
+      <c r="Z5" s="92">
         <v>3.43</v>
       </c>
-      <c r="AA5" s="130">
+      <c r="AA5" s="92">
         <v>1.661</v>
       </c>
-      <c r="AB5" s="131">
+      <c r="AB5" s="93">
         <v>0.96399999999999997</v>
       </c>
-      <c r="AC5" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE5" s="106"/>
+      <c r="AC5" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE5" s="83"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="100">
+      <c r="C6" s="78">
         <v>3</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="32">
         <v>128</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="59">
+      <c r="H6" s="1"/>
+      <c r="I6" s="38">
         <v>3</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="65">
+      <c r="K6" s="1"/>
+      <c r="L6" s="44">
         <v>4</v>
       </c>
-      <c r="M6" s="93">
+      <c r="M6" s="71">
         <v>2048</v>
       </c>
-      <c r="N6" s="95" t="s">
+      <c r="N6" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="76" t="s">
+      <c r="P6" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="77" t="b">
+      <c r="Q6" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="R6" s="82">
+      <c r="R6" s="61">
         <v>64</v>
       </c>
-      <c r="S6" s="79"/>
-      <c r="T6" s="80">
+      <c r="S6" s="58"/>
+      <c r="T6" s="59">
         <v>1E-4</v>
       </c>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="W6" s="132">
+      <c r="W6" s="94">
         <v>2.1749999999999998</v>
       </c>
-      <c r="X6" s="133">
+      <c r="X6" s="95">
         <v>2.3180000000000001</v>
       </c>
-      <c r="Y6" s="133">
+      <c r="Y6" s="95">
         <v>0.27200000000000002</v>
       </c>
-      <c r="Z6" s="133">
+      <c r="Z6" s="95">
         <v>3.1669999999999998</v>
       </c>
-      <c r="AA6" s="134">
+      <c r="AA6" s="96">
         <v>1.4990000000000001</v>
       </c>
-      <c r="AB6" s="135">
+      <c r="AB6" s="97">
         <v>0.97</v>
       </c>
-      <c r="AC6" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE6" s="105" t="s">
+      <c r="AC6" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE6" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="AF6" s="101"/>
+      <c r="AF6" s="79"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="112"/>
-      <c r="B7" s="110" t="s">
+      <c r="A7" s="99"/>
+      <c r="B7" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="29">
         <v>3</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="26">
         <v>128</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="59">
+      <c r="H7" s="1"/>
+      <c r="I7" s="38">
         <v>3</v>
       </c>
-      <c r="J7" s="61" t="s">
+      <c r="J7" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="65">
+      <c r="K7" s="1"/>
+      <c r="L7" s="44">
         <v>4</v>
       </c>
-      <c r="M7" s="93">
+      <c r="M7" s="71">
         <v>2048</v>
       </c>
-      <c r="N7" s="72" t="s">
+      <c r="N7" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="77" t="b">
+      <c r="P7" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="R7" s="82">
+      <c r="R7" s="61">
         <v>64</v>
       </c>
-      <c r="S7" s="79"/>
-      <c r="T7" s="80">
+      <c r="S7" s="58"/>
+      <c r="T7" s="59">
         <v>1E-4</v>
       </c>
-      <c r="U7" s="86" t="s">
+      <c r="U7" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="84"/>
-      <c r="W7" s="132">
+      <c r="W7" s="94">
         <v>2.1160000000000001</v>
       </c>
-      <c r="X7" s="133">
+      <c r="X7" s="95">
         <v>2.35</v>
       </c>
-      <c r="Y7" s="133">
+      <c r="Y7" s="95">
         <v>0.25800000000000001</v>
       </c>
-      <c r="Z7" s="133">
+      <c r="Z7" s="95">
         <v>3.1520000000000001</v>
       </c>
-      <c r="AA7" s="134">
+      <c r="AA7" s="96">
         <v>1.4590000000000001</v>
       </c>
-      <c r="AB7" s="135">
+      <c r="AB7" s="97">
         <v>0.97</v>
       </c>
-      <c r="AC7" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE7" s="102" t="s">
+      <c r="AC7" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE7" s="80" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="112"/>
-      <c r="B8" s="110" t="s">
+      <c r="A8" s="99"/>
+      <c r="B8" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="29">
         <v>3</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="26">
         <v>128</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="59">
+      <c r="H8" s="1"/>
+      <c r="I8" s="38">
         <v>3</v>
       </c>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="65">
+      <c r="K8" s="1"/>
+      <c r="L8" s="44">
         <v>4</v>
       </c>
-      <c r="M8" s="93">
+      <c r="M8" s="71">
         <v>2048</v>
       </c>
-      <c r="N8" s="72" t="s">
+      <c r="N8" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q8" s="92" t="b">
+      <c r="P8" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="R8" s="82">
+      <c r="R8" s="61">
         <v>64</v>
       </c>
-      <c r="S8" s="79"/>
-      <c r="T8" s="80">
+      <c r="S8" s="58"/>
+      <c r="T8" s="59">
         <v>1E-4</v>
       </c>
-      <c r="U8" s="86" t="s">
+      <c r="U8" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V8" s="84"/>
-      <c r="W8" s="132"/>
-      <c r="X8" s="133"/>
-      <c r="Y8" s="133"/>
-      <c r="Z8" s="133"/>
-      <c r="AA8" s="134"/>
-      <c r="AB8" s="135"/>
-      <c r="AC8" s="81"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="102"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="95"/>
+      <c r="Y8" s="95"/>
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="96"/>
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE8" s="80"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="113"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="95"/>
+      <c r="AA9" s="96"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="60"/>
+      <c r="AF9" s="79"/>
+    </row>
+    <row r="10" spans="1:32" ht="17.25" thickBot="1">
+      <c r="A10" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="100">
+      <c r="C10" s="31">
         <v>3</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D10" s="32">
         <v>128</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E10" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G10" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="59">
+      <c r="H10" s="1"/>
+      <c r="I10" s="37">
         <v>3</v>
       </c>
-      <c r="J9" s="118" t="s">
+      <c r="J10" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="64">
+      <c r="K10" s="1"/>
+      <c r="L10" s="41">
         <v>4</v>
       </c>
-      <c r="M9" s="93">
+      <c r="M10" s="47">
         <v>2048</v>
       </c>
-      <c r="N9" s="72" t="s">
+      <c r="N10" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="124" t="s">
+      <c r="P10" s="68">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="86" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" s="58"/>
+      <c r="T10" s="65">
+        <v>1E-4</v>
+      </c>
+      <c r="U10" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" s="94">
+        <v>2.9390000000000001</v>
+      </c>
+      <c r="X10" s="95">
+        <v>2.8210000000000002</v>
+      </c>
+      <c r="Y10" s="95">
+        <v>0.433</v>
+      </c>
+      <c r="Z10" s="95">
+        <v>4.05</v>
+      </c>
+      <c r="AA10" s="96">
+        <v>2.008</v>
+      </c>
+      <c r="AB10" s="97">
+        <v>0.95</v>
+      </c>
+      <c r="AC10" s="60"/>
+      <c r="AE10" s="81"/>
+      <c r="AF10" s="79"/>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="99"/>
+      <c r="B11" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="Q9" s="125" t="b">
+      <c r="C11" s="29">
+        <v>3</v>
+      </c>
+      <c r="D11" s="26">
+        <v>128</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="38">
+        <v>3</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="44">
+        <v>4</v>
+      </c>
+      <c r="M11" s="71">
+        <v>2048</v>
+      </c>
+      <c r="N11" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="55">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="R9" s="120">
+      <c r="R11" s="57">
         <v>64</v>
       </c>
-      <c r="S9" s="79"/>
-      <c r="T9" s="121">
-        <v>1E-4</v>
-      </c>
-      <c r="U9" s="86" t="s">
+      <c r="S11" s="58"/>
+      <c r="T11" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="W9" s="132"/>
-      <c r="X9" s="133"/>
-      <c r="Y9" s="133"/>
-      <c r="Z9" s="133"/>
-      <c r="AA9" s="134"/>
-      <c r="AB9" s="135"/>
-      <c r="AC9" s="81"/>
-      <c r="AD9" s="104"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="101"/>
-    </row>
-    <row r="10" spans="1:32">
-      <c r="A10" s="122"/>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="133"/>
-      <c r="Z10" s="133"/>
-      <c r="AA10" s="134"/>
-      <c r="AB10" s="135"/>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="101"/>
-    </row>
-    <row r="11" spans="1:32" ht="17.25" thickBot="1">
-      <c r="A11" s="111" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="52">
-        <v>3</v>
-      </c>
-      <c r="D11" s="53">
-        <v>128</v>
-      </c>
-      <c r="E11" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="58">
-        <v>3</v>
-      </c>
-      <c r="J11" s="126" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="62">
-        <v>4</v>
-      </c>
-      <c r="M11" s="68">
-        <v>2048</v>
-      </c>
-      <c r="N11" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="90">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="116" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="S11" s="79"/>
-      <c r="T11" s="87">
-        <v>1E-4</v>
-      </c>
-      <c r="U11" s="119" t="s">
-        <v>42</v>
-      </c>
-      <c r="W11" s="132">
-        <v>2.9390000000000001</v>
-      </c>
-      <c r="X11" s="133">
-        <v>2.8210000000000002</v>
-      </c>
-      <c r="Y11" s="133">
-        <v>0.433</v>
-      </c>
-      <c r="Z11" s="133">
-        <v>4.05</v>
-      </c>
-      <c r="AA11" s="134">
-        <v>2.008</v>
-      </c>
-      <c r="AB11" s="135">
-        <v>0.95</v>
-      </c>
-      <c r="AC11" s="81"/>
-      <c r="AE11" s="103"/>
-      <c r="AF11" s="101"/>
+      <c r="W11" s="94">
+        <v>3.266</v>
+      </c>
+      <c r="X11" s="95">
+        <v>3.1920000000000002</v>
+      </c>
+      <c r="Y11" s="95">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="Z11" s="95">
+        <v>4.5659999999999998</v>
+      </c>
+      <c r="AA11" s="96">
+        <v>2.226</v>
+      </c>
+      <c r="AB11" s="97">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="AC11" s="60" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="112"/>
-      <c r="B12" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="50">
+      <c r="A12" s="99"/>
+      <c r="B12" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="29">
         <v>3</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="26">
         <v>128</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="59">
+      <c r="H12" s="1"/>
+      <c r="I12" s="38">
         <v>3</v>
       </c>
-      <c r="J12" s="61" t="s">
+      <c r="J12" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="65">
+      <c r="K12" s="1"/>
+      <c r="L12" s="44">
         <v>4</v>
       </c>
-      <c r="M12" s="93">
+      <c r="M12" s="71">
         <v>2048</v>
       </c>
-      <c r="N12" s="72" t="s">
+      <c r="N12" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="76">
+      <c r="P12" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" s="57">
+        <v>64</v>
+      </c>
+      <c r="S12" s="58"/>
+      <c r="T12" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="Q12" s="77" t="b">
-        <v>1</v>
-      </c>
-      <c r="R12" s="78">
-        <v>64</v>
-      </c>
-      <c r="S12" s="79"/>
-      <c r="T12" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V12" s="84"/>
-      <c r="W12" s="132">
-        <v>3.266</v>
-      </c>
-      <c r="X12" s="133">
-        <v>3.1920000000000002</v>
-      </c>
-      <c r="Y12" s="133">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="Z12" s="133">
-        <v>4.5659999999999998</v>
-      </c>
-      <c r="AA12" s="134">
-        <v>2.226</v>
-      </c>
-      <c r="AB12" s="135">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="AC12" s="81" t="s">
-        <v>53</v>
-      </c>
+      <c r="W12" s="94">
+        <v>2.9929999999999999</v>
+      </c>
+      <c r="X12" s="95">
+        <v>2.94</v>
+      </c>
+      <c r="Y12" s="95">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="Z12" s="95">
+        <v>4.1820000000000004</v>
+      </c>
+      <c r="AA12" s="96">
+        <v>2.5</v>
+      </c>
+      <c r="AB12" s="97">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="AC12" s="60"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="112"/>
-      <c r="B13" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="50">
+      <c r="A13" s="99"/>
+      <c r="B13" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="29">
         <v>3</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="26">
         <v>128</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="59">
+      <c r="H13" s="1"/>
+      <c r="I13" s="12">
         <v>3</v>
       </c>
-      <c r="J13" s="61" t="s">
+      <c r="J13" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="65">
+      <c r="K13" s="1"/>
+      <c r="L13" s="44">
         <v>4</v>
       </c>
-      <c r="M13" s="93">
+      <c r="M13" s="46">
         <v>2048</v>
       </c>
-      <c r="N13" s="72" t="s">
+      <c r="N13" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="92" t="b">
+      <c r="P13" s="55">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="R13" s="78">
-        <v>64</v>
-      </c>
-      <c r="S13" s="79"/>
-      <c r="T13" s="87" t="s">
+      <c r="R13" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="S13" s="58"/>
+      <c r="T13" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="U13" s="86" t="s">
+      <c r="U13" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="V13" s="84"/>
-      <c r="W13" s="132">
-        <v>2.9929999999999999</v>
-      </c>
-      <c r="X13" s="133">
-        <v>2.94</v>
-      </c>
-      <c r="Y13" s="133">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="Z13" s="133">
-        <v>4.1820000000000004</v>
-      </c>
-      <c r="AA13" s="134">
-        <v>2.5</v>
-      </c>
-      <c r="AB13" s="135">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="AC13" s="81"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="96"/>
+      <c r="AB13" s="97"/>
+      <c r="AC13" s="60"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="112"/>
-      <c r="B14" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="50">
+      <c r="A14" s="100"/>
+      <c r="B14" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="29">
         <v>3</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="26">
         <v>128</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="14">
+      <c r="H14" s="1"/>
+      <c r="I14" s="12">
         <v>3</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="65">
+      <c r="K14" s="1"/>
+      <c r="L14" s="44">
         <v>4</v>
       </c>
-      <c r="M14" s="67">
+      <c r="M14" s="46">
         <v>2048</v>
       </c>
-      <c r="N14" s="73" t="s">
+      <c r="N14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="76">
+      <c r="P14" s="68">
         <v>50</v>
       </c>
-      <c r="Q14" s="77" t="b">
+      <c r="Q14" s="86" t="b">
         <v>1</v>
       </c>
-      <c r="R14" s="82" t="s">
+      <c r="R14" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="S14" s="79"/>
-      <c r="T14" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="U14" s="86" t="s">
+      <c r="S14" s="58"/>
+      <c r="T14" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="U14" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="W14" s="132"/>
-      <c r="X14" s="133"/>
-      <c r="Y14" s="133"/>
-      <c r="Z14" s="133"/>
-      <c r="AA14" s="134"/>
-      <c r="AB14" s="135"/>
-      <c r="AC14" s="81"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="96"/>
+      <c r="AB14" s="97"/>
+      <c r="AC14" s="60"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="113"/>
-      <c r="B15" s="110" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="50">
-        <v>3</v>
-      </c>
-      <c r="D15" s="47">
-        <v>128</v>
-      </c>
-      <c r="E15" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="14">
-        <v>3</v>
-      </c>
-      <c r="J15" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="65">
-        <v>4</v>
-      </c>
-      <c r="M15" s="67">
-        <v>2048</v>
-      </c>
-      <c r="N15" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="P15" s="90">
-        <v>50</v>
-      </c>
-      <c r="Q15" s="116" t="b">
-        <v>1</v>
-      </c>
-      <c r="R15" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="S15" s="79"/>
-      <c r="T15" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="U15" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="W15" s="132"/>
-      <c r="X15" s="133"/>
-      <c r="Y15" s="133"/>
-      <c r="Z15" s="133"/>
-      <c r="AA15" s="134"/>
-      <c r="AB15" s="135"/>
-      <c r="AC15" s="81"/>
+      <c r="B15" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="24"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="50"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="64"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="96"/>
+      <c r="AB15" s="97"/>
+      <c r="AC15" s="60"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="B16" s="110" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="45"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="71"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="86"/>
-      <c r="W16" s="132"/>
-      <c r="X16" s="133"/>
-      <c r="Y16" s="133"/>
-      <c r="Z16" s="133"/>
-      <c r="AA16" s="134"/>
-      <c r="AB16" s="135"/>
-      <c r="AC16" s="81"/>
+      <c r="B16" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="35"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="51"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="64"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="96"/>
+      <c r="AB16" s="97"/>
+      <c r="AC16" s="60"/>
     </row>
     <row r="17" spans="2:29">
-      <c r="B17" s="110" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="56"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="72"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="86"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="133"/>
-      <c r="Y17" s="133"/>
-      <c r="Z17" s="133"/>
-      <c r="AA17" s="134"/>
-      <c r="AB17" s="135"/>
-      <c r="AC17" s="81"/>
+      <c r="B17" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="52"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="64"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="97"/>
+      <c r="AC17" s="60"/>
     </row>
     <row r="18" spans="2:29">
-      <c r="B18" s="110" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="73"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="86"/>
-      <c r="W18" s="132"/>
-      <c r="X18" s="133"/>
-      <c r="Y18" s="133"/>
-      <c r="Z18" s="133"/>
-      <c r="AA18" s="134"/>
-      <c r="AB18" s="135"/>
-      <c r="AC18" s="81"/>
+      <c r="B18" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="24"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="48"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="66"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="96"/>
+      <c r="AB18" s="97"/>
+      <c r="AC18" s="60"/>
     </row>
     <row r="19" spans="2:29">
-      <c r="B19" s="110" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="45"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="69"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="88"/>
-      <c r="W19" s="132"/>
-      <c r="X19" s="133"/>
-      <c r="Y19" s="133"/>
-      <c r="Z19" s="133"/>
-      <c r="AA19" s="134"/>
-      <c r="AB19" s="135"/>
-      <c r="AC19" s="81"/>
+      <c r="B19" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="24"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="54"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="64"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="96"/>
+      <c r="AB19" s="97"/>
+      <c r="AC19" s="60"/>
     </row>
     <row r="20" spans="2:29">
-      <c r="B20" s="110" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="45"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="75"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="86"/>
-      <c r="W20" s="132"/>
-      <c r="X20" s="133"/>
-      <c r="Y20" s="133"/>
-      <c r="Z20" s="133"/>
-      <c r="AA20" s="134"/>
-      <c r="AB20" s="135"/>
-      <c r="AC20" s="81"/>
+      <c r="B20" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="35"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="50"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="64"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="96"/>
+      <c r="AB20" s="97"/>
+      <c r="AC20" s="60"/>
     </row>
     <row r="21" spans="2:29">
-      <c r="B21" s="110" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="56"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="71"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="86"/>
-      <c r="W21" s="132"/>
-      <c r="X21" s="133"/>
-      <c r="Y21" s="133"/>
-      <c r="Z21" s="133"/>
-      <c r="AA21" s="134"/>
-      <c r="AB21" s="135"/>
-      <c r="AC21" s="81"/>
+      <c r="B21" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="51"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="64"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="96"/>
+      <c r="AB21" s="97"/>
+      <c r="AC21" s="60"/>
     </row>
     <row r="22" spans="2:29">
-      <c r="B22" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="72"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="86"/>
-      <c r="W22" s="132"/>
-      <c r="X22" s="133"/>
-      <c r="Y22" s="133"/>
-      <c r="Z22" s="133"/>
-      <c r="AA22" s="134"/>
-      <c r="AB22" s="135"/>
-      <c r="AC22" s="81"/>
+      <c r="B22" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="24"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="52"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="64"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="97"/>
+      <c r="AC22" s="60"/>
     </row>
     <row r="23" spans="2:29">
-      <c r="B23" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="45"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="73"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="86"/>
-      <c r="W23" s="132"/>
-      <c r="X23" s="133"/>
-      <c r="Y23" s="133"/>
-      <c r="Z23" s="133"/>
-      <c r="AA23" s="134"/>
-      <c r="AB23" s="135"/>
-      <c r="AC23" s="81"/>
+      <c r="B23" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="24"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="48"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="66"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="96"/>
+      <c r="AB23" s="97"/>
+      <c r="AC23" s="60"/>
     </row>
-    <row r="24" spans="2:29">
-      <c r="B24" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="45"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="69"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="88"/>
-      <c r="W24" s="132"/>
-      <c r="X24" s="133"/>
-      <c r="Y24" s="133"/>
-      <c r="Z24" s="133"/>
-      <c r="AA24" s="134"/>
-      <c r="AB24" s="135"/>
-      <c r="AC24" s="81"/>
-    </row>
-    <row r="26" spans="2:29">
-      <c r="C26" s="15">
+    <row r="25" spans="2:29">
+      <c r="C25" s="13">
         <v>3</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D25" s="14">
         <v>128</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G25" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="2:29">
-      <c r="V31" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A10:A14"/>
     <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="C2:U2"/>
     <mergeCell ref="W2:AB2"/>
     <mergeCell ref="W3:X3"/>
